--- a/g_data/corp_dataset.xlsx
+++ b/g_data/corp_dataset.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\multicampus\Desktop\g_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\multicampus\Desktop\S05P21A302\g_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,9 +24,6 @@
     <t>종목코드</t>
   </si>
   <si>
-    <t>종목명</t>
-  </si>
-  <si>
     <t>종가</t>
   </si>
   <si>
@@ -1840,6 +1837,10 @@
   </si>
   <si>
     <t>code</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1879,7 +1880,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1902,13 +1903,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -2215,52 +2230,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H201"/>
+  <dimension ref="A1:I201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
+    <col min="3" max="3" width="17.69921875" customWidth="1"/>
     <col min="8" max="8" width="10.8984375" customWidth="1"/>
-    <col min="9" max="9" width="11.19921875" customWidth="1"/>
+    <col min="9" max="9" width="36.3984375" customWidth="1"/>
     <col min="10" max="10" width="10.19921875" customWidth="1"/>
     <col min="11" max="11" width="9.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+        <v>605</v>
+      </c>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D2">
         <v>77400</v>
@@ -2275,18 +2292,18 @@
         <v>462061169</v>
       </c>
       <c r="H2" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D3">
         <v>106000</v>
@@ -2301,18 +2318,18 @@
         <v>77168251</v>
       </c>
       <c r="H3" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D4">
         <v>451500</v>
@@ -2327,18 +2344,18 @@
         <v>74164923</v>
       </c>
       <c r="H4" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D5">
         <v>154000</v>
@@ -2353,18 +2370,18 @@
         <v>68484900</v>
       </c>
       <c r="H5" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D6">
         <v>951000</v>
@@ -2379,18 +2396,18 @@
         <v>62922915</v>
       </c>
       <c r="H6" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D7">
         <v>749000</v>
@@ -2405,18 +2422,18 @@
         <v>52873665</v>
       </c>
       <c r="H7" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D8">
         <v>763000</v>
@@ -2431,18 +2448,18 @@
         <v>52467336</v>
       </c>
       <c r="H8" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D9">
         <v>214000</v>
@@ -2457,18 +2474,18 @@
         <v>45724992</v>
       </c>
       <c r="H9" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D10">
         <v>278000</v>
@@ -2483,18 +2500,18 @@
         <v>38345851</v>
       </c>
       <c r="H10" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D11">
         <v>85900</v>
@@ -2509,18 +2526,18 @@
         <v>34820712</v>
       </c>
       <c r="H11" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D12">
         <v>349000</v>
@@ -2535,18 +2552,18 @@
         <v>30428205</v>
       </c>
       <c r="H12" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D13">
         <v>279500</v>
@@ -2561,18 +2578,18 @@
         <v>26494670</v>
       </c>
       <c r="H13" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D14">
         <v>131500</v>
@@ -2587,18 +2604,18 @@
         <v>24575651</v>
       </c>
       <c r="H14" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D15">
         <v>148500</v>
@@ -2613,18 +2630,18 @@
         <v>24301700</v>
       </c>
       <c r="H15" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D16">
         <v>317500</v>
@@ -2639,7 +2656,7 @@
         <v>24288750</v>
       </c>
       <c r="H16" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.4">
@@ -2647,10 +2664,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D17">
         <v>250500</v>
@@ -2665,7 +2682,7 @@
         <v>23162624</v>
       </c>
       <c r="H17" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.4">
@@ -2673,10 +2690,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D18">
         <v>1429000</v>
@@ -2691,7 +2708,7 @@
         <v>22318404</v>
       </c>
       <c r="H18" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.4">
@@ -2699,10 +2716,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D19">
         <v>307000</v>
@@ -2717,7 +2734,7 @@
         <v>22122464</v>
       </c>
       <c r="H19" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.4">
@@ -2725,10 +2742,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D20">
         <v>51800</v>
@@ -2743,7 +2760,7 @@
         <v>21538850</v>
       </c>
       <c r="H20" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.4">
@@ -2751,10 +2768,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D21">
         <v>38300</v>
@@ -2769,7 +2786,7 @@
         <v>19785763</v>
       </c>
       <c r="H21" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.4">
@@ -2777,10 +2794,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D22">
         <v>268000</v>
@@ -2795,7 +2812,7 @@
         <v>18856560</v>
       </c>
       <c r="H22" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.4">
@@ -2803,10 +2820,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D23">
         <v>39000</v>
@@ -2821,7 +2838,7 @@
         <v>15810307</v>
       </c>
       <c r="H23" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.4">
@@ -2829,10 +2846,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D24">
         <v>23850</v>
@@ -2847,7 +2864,7 @@
         <v>15310843</v>
       </c>
       <c r="H24" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.4">
@@ -2855,10 +2872,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D25">
         <v>95600</v>
@@ -2873,7 +2890,7 @@
         <v>15037975</v>
       </c>
       <c r="H25" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.4">
@@ -2881,10 +2898,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D26">
         <v>74600</v>
@@ -2899,7 +2916,7 @@
         <v>14920000</v>
       </c>
       <c r="H26" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.4">
@@ -2907,10 +2924,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D27">
         <v>208000</v>
@@ -2925,7 +2942,7 @@
         <v>14829899</v>
       </c>
       <c r="H27" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.4">
@@ -2933,10 +2950,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D28">
         <v>183500</v>
@@ -2951,7 +2968,7 @@
         <v>13706293</v>
       </c>
       <c r="H28" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.4">
@@ -2959,10 +2976,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D29">
         <v>632000</v>
@@ -2977,7 +2994,7 @@
         <v>13874942</v>
       </c>
       <c r="H29" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.4">
@@ -2985,10 +3002,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D30">
         <v>172000</v>
@@ -3003,7 +3020,7 @@
         <v>13308982</v>
       </c>
       <c r="H30" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.4">
@@ -3011,10 +3028,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D31">
         <v>43700</v>
@@ -3029,7 +3046,7 @@
         <v>13120578</v>
       </c>
       <c r="H31" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.4">
@@ -3037,10 +3054,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D32">
         <v>222000</v>
@@ -3055,7 +3072,7 @@
         <v>12977785</v>
       </c>
       <c r="H32" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.4">
@@ -3063,10 +3080,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D33">
         <v>152000</v>
@@ -3081,7 +3098,7 @@
         <v>11774409</v>
       </c>
       <c r="H33" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.4">
@@ -3089,10 +3106,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D34">
         <v>81700</v>
@@ -3107,7 +3124,7 @@
         <v>11216797</v>
       </c>
       <c r="H34" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.4">
@@ -3115,10 +3132,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D35">
         <v>286500</v>
@@ -3133,7 +3150,7 @@
         <v>11188059</v>
       </c>
       <c r="H35" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.4">
@@ -3141,10 +3158,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D36">
         <v>21750</v>
@@ -3159,7 +3176,7 @@
         <v>11223136</v>
       </c>
       <c r="H36" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.4">
@@ -3167,10 +3184,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D37">
         <v>31150</v>
@@ -3185,7 +3202,7 @@
         <v>10834619</v>
       </c>
       <c r="H37" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.4">
@@ -3193,10 +3210,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C38" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D38">
         <v>126000</v>
@@ -3211,7 +3228,7 @@
         <v>10830141</v>
       </c>
       <c r="H38" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.4">
@@ -3219,10 +3236,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D39">
         <v>226500</v>
@@ -3237,7 +3254,7 @@
         <v>10730401</v>
       </c>
       <c r="H39" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.4">
@@ -3245,10 +3262,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D40">
         <v>92100</v>
@@ -3263,7 +3280,7 @@
         <v>10368875</v>
       </c>
       <c r="H40" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.4">
@@ -3271,10 +3288,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C41" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D41">
         <v>517000</v>
@@ -3289,7 +3306,7 @@
         <v>9755790</v>
       </c>
       <c r="H41" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.4">
@@ -3297,10 +3314,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C42" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D42">
         <v>122000</v>
@@ -3315,7 +3332,7 @@
         <v>9554217</v>
       </c>
       <c r="H42" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.4">
@@ -3323,10 +3340,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C43" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D43">
         <v>16250</v>
@@ -3341,7 +3358,7 @@
         <v>8674250</v>
       </c>
       <c r="H43" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.4">
@@ -3349,10 +3366,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C44" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D44">
         <v>32550</v>
@@ -3367,7 +3384,7 @@
         <v>8499189</v>
       </c>
       <c r="H44" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.4">
@@ -3375,10 +3392,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C45" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D45">
         <v>248500</v>
@@ -3393,7 +3410,7 @@
         <v>8517442</v>
       </c>
       <c r="H45" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.4">
@@ -3401,10 +3418,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C46" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D46">
         <v>11100</v>
@@ -3419,7 +3436,7 @@
         <v>8081472</v>
       </c>
       <c r="H46" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.4">
@@ -3427,10 +3444,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C47" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D47">
         <v>113500</v>
@@ -3445,7 +3462,7 @@
         <v>8032749</v>
       </c>
       <c r="H47" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.4">
@@ -3453,10 +3470,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C48" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D48">
         <v>40500</v>
@@ -3471,7 +3488,7 @@
         <v>7746779</v>
       </c>
       <c r="H48" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.4">
@@ -3479,10 +3496,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C49" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D49">
         <v>10350</v>
@@ -3497,7 +3514,7 @@
         <v>7703511</v>
       </c>
       <c r="H49" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.4">
@@ -3505,10 +3522,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C50" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D50">
         <v>20600</v>
@@ -3523,7 +3540,7 @@
         <v>7371003</v>
       </c>
       <c r="H50" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.4">
@@ -3531,10 +3548,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C51" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D51">
         <v>191000</v>
@@ -3549,7 +3566,7 @@
         <v>7162500</v>
       </c>
       <c r="H51" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.4">
@@ -3557,10 +3574,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C52" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D52">
         <v>51000</v>
@@ -3575,7 +3592,7 @@
         <v>6805735</v>
       </c>
       <c r="H52" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.4">
@@ -3583,10 +3600,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C53" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D53">
         <v>441500</v>
@@ -3601,7 +3618,7 @@
         <v>6646423</v>
       </c>
       <c r="H53" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.4">
@@ -3609,10 +3626,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C54" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D54">
         <v>14350</v>
@@ -3627,7 +3644,7 @@
         <v>6265373</v>
       </c>
       <c r="H54" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.4">
@@ -3635,10 +3652,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C55" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D55">
         <v>198500</v>
@@ -3653,7 +3670,7 @@
         <v>6047837</v>
       </c>
       <c r="H55" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.4">
@@ -3661,10 +3678,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C56" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D56">
         <v>28050</v>
@@ -3679,7 +3696,7 @@
         <v>6001031</v>
       </c>
       <c r="H56" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.4">
@@ -3687,10 +3704,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C57" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D57">
         <v>54500</v>
@@ -3705,7 +3722,7 @@
         <v>6068889</v>
       </c>
       <c r="H57" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.4">
@@ -3713,10 +3730,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C58" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D58">
         <v>77700</v>
@@ -3731,7 +3748,7 @@
         <v>5734230</v>
       </c>
       <c r="H58" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.4">
@@ -3739,10 +3756,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C59" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D59">
         <v>46350</v>
@@ -3757,7 +3774,7 @@
         <v>5741609</v>
       </c>
       <c r="H59" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.4">
@@ -3765,10 +3782,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C60" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D60">
         <v>151000</v>
@@ -3783,7 +3800,7 @@
         <v>5718113</v>
       </c>
       <c r="H60" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.4">
@@ -3791,10 +3808,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C61" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D61">
         <v>8840</v>
@@ -3809,7 +3826,7 @@
         <v>5616197</v>
       </c>
       <c r="H61" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.4">
@@ -3817,10 +3834,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C62" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D62">
         <v>226500</v>
@@ -3835,7 +3852,7 @@
         <v>5360600</v>
       </c>
       <c r="H62" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.4">
@@ -3843,10 +3860,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C63" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D63">
         <v>65800</v>
@@ -3861,7 +3878,7 @@
         <v>5197745</v>
       </c>
       <c r="H63" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.4">
@@ -3869,10 +3886,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C64" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D64">
         <v>92200</v>
@@ -3887,7 +3904,7 @@
         <v>5137936</v>
       </c>
       <c r="H64" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.4">
@@ -3895,10 +3912,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C65" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D65">
         <v>75300</v>
@@ -3913,7 +3930,7 @@
         <v>5068037</v>
       </c>
       <c r="H65" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.4">
@@ -3921,10 +3938,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C66" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D66">
         <v>176000</v>
@@ -3939,7 +3956,7 @@
         <v>4906144</v>
       </c>
       <c r="H66" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.4">
@@ -3947,10 +3964,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C67" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D67">
         <v>124500</v>
@@ -3965,7 +3982,7 @@
         <v>4922248</v>
       </c>
       <c r="H67" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.4">
@@ -3973,10 +3990,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C68" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D68">
         <v>23900</v>
@@ -3991,7 +4008,7 @@
         <v>4684400</v>
       </c>
       <c r="H68" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.4">
@@ -3999,10 +4016,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C69" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D69">
         <v>56500</v>
@@ -4017,7 +4034,7 @@
         <v>4658887</v>
       </c>
       <c r="H69" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.4">
@@ -4025,10 +4042,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C70" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D70">
         <v>385000</v>
@@ -4043,7 +4060,7 @@
         <v>4499317</v>
       </c>
       <c r="H70" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.4">
@@ -4051,10 +4068,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C71" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D71">
         <v>64300</v>
@@ -4069,7 +4086,7 @@
         <v>4499261</v>
       </c>
       <c r="H71" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.4">
@@ -4077,10 +4094,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C72" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D72">
         <v>65200</v>
@@ -4095,7 +4112,7 @@
         <v>4351367</v>
       </c>
       <c r="H72" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.4">
@@ -4103,10 +4120,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C73" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D73">
         <v>42700</v>
@@ -4121,7 +4138,7 @@
         <v>4280639</v>
       </c>
       <c r="H73" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.4">
@@ -4129,10 +4146,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C74" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D74">
         <v>48900</v>
@@ -4147,7 +4164,7 @@
         <v>4366770</v>
       </c>
       <c r="H74" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.4">
@@ -4155,10 +4172,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C75" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D75">
         <v>60100</v>
@@ -4173,7 +4190,7 @@
         <v>4255080</v>
       </c>
       <c r="H75" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.4">
@@ -4181,10 +4198,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C76" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D76">
         <v>8390</v>
@@ -4199,7 +4216,7 @@
         <v>4227382</v>
       </c>
       <c r="H76" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.4">
@@ -4207,10 +4224,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C77" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D77">
         <v>7570</v>
@@ -4225,7 +4242,7 @@
         <v>4046691</v>
       </c>
       <c r="H77" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.4">
@@ -4233,10 +4250,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C78" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D78">
         <v>34350</v>
@@ -4251,7 +4268,7 @@
         <v>3979753</v>
       </c>
       <c r="H78" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.4">
@@ -4259,10 +4276,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C79" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D79">
         <v>41950</v>
@@ -4277,7 +4294,7 @@
         <v>3897800</v>
       </c>
       <c r="H79" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.4">
@@ -4285,10 +4302,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C80" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D80">
         <v>6230</v>
@@ -4303,7 +4320,7 @@
         <v>3924900</v>
       </c>
       <c r="H80" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.4">
@@ -4311,10 +4328,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C81" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D81">
         <v>439500</v>
@@ -4329,7 +4346,7 @@
         <v>3905604</v>
       </c>
       <c r="H81" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.4">
@@ -4337,10 +4354,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C82" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D82">
         <v>45550</v>
@@ -4355,7 +4372,7 @@
         <v>3898237</v>
       </c>
       <c r="H82" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.4">
@@ -4363,10 +4380,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C83" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D83">
         <v>170500</v>
@@ -4381,7 +4398,7 @@
         <v>3889505</v>
       </c>
       <c r="H83" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.4">
@@ -4389,10 +4406,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C84" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D84">
         <v>311000</v>
@@ -4407,7 +4424,7 @@
         <v>3756346</v>
       </c>
       <c r="H84" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.4">
@@ -4415,10 +4432,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C85" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D85">
         <v>35550</v>
@@ -4433,7 +4450,7 @@
         <v>3729523</v>
       </c>
       <c r="H85" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.4">
@@ -4441,10 +4458,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C86" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D86">
         <v>69200</v>
@@ -4459,7 +4476,7 @@
         <v>3666561</v>
       </c>
       <c r="H86" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.4">
@@ -4467,10 +4484,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C87" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D87">
         <v>5450</v>
@@ -4485,7 +4502,7 @@
         <v>3715432</v>
       </c>
       <c r="H87" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.4">
@@ -4493,10 +4510,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C88" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D88">
         <v>13200</v>
@@ -4511,7 +4528,7 @@
         <v>3714597</v>
       </c>
       <c r="H88" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.4">
@@ -4519,10 +4536,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C89" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D89">
         <v>37750</v>
@@ -4537,7 +4554,7 @@
         <v>3484816</v>
       </c>
       <c r="H89" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.4">
@@ -4545,10 +4562,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C90" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D90">
         <v>19000</v>
@@ -4563,7 +4580,7 @@
         <v>3589468</v>
       </c>
       <c r="H90" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.4">
@@ -4571,10 +4588,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C91" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D91">
         <v>52700</v>
@@ -4589,7 +4606,7 @@
         <v>3451519</v>
       </c>
       <c r="H91" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.4">
@@ -4597,10 +4614,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C92" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D92">
         <v>75600</v>
@@ -4615,7 +4632,7 @@
         <v>3485979</v>
       </c>
       <c r="H92" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.4">
@@ -4623,10 +4640,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C93" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D93">
         <v>89000</v>
@@ -4641,7 +4658,7 @@
         <v>3493083</v>
       </c>
       <c r="H93" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.4">
@@ -4649,10 +4666,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C94" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D94">
         <v>301500</v>
@@ -4667,7 +4684,7 @@
         <v>3417561</v>
       </c>
       <c r="H94" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.4">
@@ -4675,10 +4692,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C95" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D95">
         <v>34250</v>
@@ -4693,7 +4710,7 @@
         <v>3586589</v>
       </c>
       <c r="H95" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.4">
@@ -4701,10 +4718,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C96" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D96">
         <v>79700</v>
@@ -4719,7 +4736,7 @@
         <v>3361061</v>
       </c>
       <c r="H96" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.4">
@@ -4727,10 +4744,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C97" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D97">
         <v>139000</v>
@@ -4745,7 +4762,7 @@
         <v>3315063</v>
       </c>
       <c r="H97" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.4">
@@ -4753,10 +4770,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C98" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D98">
         <v>273500</v>
@@ -4771,7 +4788,7 @@
         <v>3214007</v>
       </c>
       <c r="H98" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.4">
@@ -4779,10 +4796,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C99" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D99">
         <v>120000</v>
@@ -4797,7 +4814,7 @@
         <v>3146342</v>
       </c>
       <c r="H99" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.4">
@@ -4805,10 +4822,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C100" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D100">
         <v>7320</v>
@@ -4823,7 +4840,7 @@
         <v>3042358</v>
       </c>
       <c r="H100" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.4">
@@ -4831,10 +4848,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C101" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D101">
         <v>32350</v>
@@ -4849,7 +4866,7 @@
         <v>3153320</v>
       </c>
       <c r="H101" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.4">
@@ -4857,10 +4874,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C102" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D102">
         <v>108000</v>
@@ -4875,7 +4892,7 @@
         <v>3055186</v>
       </c>
       <c r="H102" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.4">
@@ -4883,10 +4900,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C103" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D103">
         <v>735000</v>
@@ -4901,7 +4918,7 @@
         <v>3180846</v>
       </c>
       <c r="H103" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.4">
@@ -4909,10 +4926,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C104" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D104">
         <v>105000</v>
@@ -4927,7 +4944,7 @@
         <v>3063585</v>
       </c>
       <c r="H104" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.4">
@@ -4935,10 +4952,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C105" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D105">
         <v>82500</v>
@@ -4953,7 +4970,7 @@
         <v>3134932</v>
       </c>
       <c r="H105" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.4">
@@ -4961,10 +4978,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C106" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D106">
         <v>178000</v>
@@ -4979,7 +4996,7 @@
         <v>3076535</v>
       </c>
       <c r="H106" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.4">
@@ -4987,10 +5004,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C107" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D107">
         <v>27750</v>
@@ -5005,7 +5022,7 @@
         <v>2977316</v>
       </c>
       <c r="H107" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.4">
@@ -5013,10 +5030,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C108" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D108">
         <v>24000</v>
@@ -5031,7 +5048,7 @@
         <v>2961004</v>
       </c>
       <c r="H108" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.4">
@@ -5039,10 +5056,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C109" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D109">
         <v>26400</v>
@@ -5057,7 +5074,7 @@
         <v>2881357</v>
       </c>
       <c r="H109" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.4">
@@ -5065,10 +5082,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C110" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D110">
         <v>29000</v>
@@ -5083,7 +5100,7 @@
         <v>2891300</v>
       </c>
       <c r="H110" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.4">
@@ -5091,10 +5108,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C111" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D111">
         <v>61700</v>
@@ -5109,7 +5126,7 @@
         <v>2897254</v>
       </c>
       <c r="H111" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.4">
@@ -5117,10 +5134,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C112" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D112">
         <v>121000</v>
@@ -5135,7 +5152,7 @@
         <v>2847605</v>
       </c>
       <c r="H112" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.4">
@@ -5143,10 +5160,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C113" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D113">
         <v>73300</v>
@@ -5161,7 +5178,7 @@
         <v>2927760</v>
       </c>
       <c r="H113" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.4">
@@ -5169,10 +5186,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C114" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D114">
         <v>3370</v>
@@ -5187,7 +5204,7 @@
         <v>2926946</v>
       </c>
       <c r="H114" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.4">
@@ -5195,10 +5212,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C115" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D115">
         <v>23700</v>
@@ -5213,7 +5230,7 @@
         <v>2726477</v>
       </c>
       <c r="H115" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.4">
@@ -5221,10 +5238,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C116" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D116">
         <v>45700</v>
@@ -5239,7 +5256,7 @@
         <v>2776377</v>
       </c>
       <c r="H116" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.4">
@@ -5247,10 +5264,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C117" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D117">
         <v>598000</v>
@@ -5265,7 +5282,7 @@
         <v>2679009</v>
       </c>
       <c r="H117" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.4">
@@ -5273,10 +5290,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C118" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D118">
         <v>271000</v>
@@ -5291,7 +5308,7 @@
         <v>2668044</v>
       </c>
       <c r="H118" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.4">
@@ -5299,10 +5316,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C119" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D119">
         <v>36600</v>
@@ -5317,7 +5334,7 @@
         <v>2743490</v>
       </c>
       <c r="H119" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.4">
@@ -5325,10 +5342,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C120" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D120">
         <v>62300</v>
@@ -5343,7 +5360,7 @@
         <v>2766032</v>
       </c>
       <c r="H120" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.4">
@@ -5351,10 +5368,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C121" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D121">
         <v>143500</v>
@@ -5369,7 +5386,7 @@
         <v>2777979</v>
       </c>
       <c r="H121" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.4">
@@ -5377,10 +5394,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C122" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D122">
         <v>7830</v>
@@ -5395,7 +5412,7 @@
         <v>2552073</v>
       </c>
       <c r="H122" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.4">
@@ -5403,10 +5420,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C123" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D123">
         <v>51200</v>
@@ -5421,7 +5438,7 @@
         <v>2592256</v>
       </c>
       <c r="H123" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.4">
@@ -5429,10 +5446,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C124" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D124">
         <v>90400</v>
@@ -5447,7 +5464,7 @@
         <v>2458436</v>
       </c>
       <c r="H124" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.4">
@@ -5455,10 +5472,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C125" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D125">
         <v>118000</v>
@@ -5473,7 +5490,7 @@
         <v>2486381</v>
       </c>
       <c r="H125" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.4">
@@ -5481,10 +5498,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C126" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D126">
         <v>85900</v>
@@ -5499,7 +5516,7 @@
         <v>2317482</v>
       </c>
       <c r="H126" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.4">
@@ -5507,10 +5524,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C127" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D127">
         <v>25400</v>
@@ -5525,7 +5542,7 @@
         <v>2270760</v>
       </c>
       <c r="H127" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.4">
@@ -5533,10 +5550,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C128" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D128">
         <v>34500</v>
@@ -5551,7 +5568,7 @@
         <v>2419610</v>
       </c>
       <c r="H128" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.4">
@@ -5559,10 +5576,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C129" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D129">
         <v>2560</v>
@@ -5577,7 +5594,7 @@
         <v>2192571</v>
       </c>
       <c r="H129" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.4">
@@ -5585,10 +5602,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C130" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D130">
         <v>36300</v>
@@ -5603,7 +5620,7 @@
         <v>2110554</v>
       </c>
       <c r="H130" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.4">
@@ -5611,10 +5628,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C131" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D131">
         <v>50200</v>
@@ -5629,7 +5646,7 @@
         <v>2048923</v>
       </c>
       <c r="H131" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.4">
@@ -5637,10 +5654,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C132" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D132">
         <v>68200</v>
@@ -5655,7 +5672,7 @@
         <v>2046000</v>
       </c>
       <c r="H132" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.4">
@@ -5663,10 +5680,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C133" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D133">
         <v>68700</v>
@@ -5681,7 +5698,7 @@
         <v>2212140</v>
       </c>
       <c r="H133" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.4">
@@ -5689,10 +5706,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C134" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D134">
         <v>49100</v>
@@ -5707,7 +5724,7 @@
         <v>1876602</v>
       </c>
       <c r="H134" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.4">
@@ -5715,10 +5732,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C135" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D135">
         <v>165500</v>
@@ -5733,7 +5750,7 @@
         <v>1917578</v>
       </c>
       <c r="H135" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.4">
@@ -5741,10 +5758,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C136" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D136">
         <v>80900</v>
@@ -5759,7 +5776,7 @@
         <v>1893257</v>
       </c>
       <c r="H136" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.4">
@@ -5767,10 +5784,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C137" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D137">
         <v>519000</v>
@@ -5785,7 +5802,7 @@
         <v>1905758</v>
       </c>
       <c r="H137" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.4">
@@ -5793,10 +5810,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C138" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D138">
         <v>29750</v>
@@ -5811,7 +5828,7 @@
         <v>1960743</v>
       </c>
       <c r="H138" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.4">
@@ -5819,10 +5836,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C139" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D139">
         <v>19950</v>
@@ -5837,7 +5854,7 @@
         <v>1903883</v>
       </c>
       <c r="H139" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.4">
@@ -5845,10 +5862,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C140" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D140">
         <v>71900</v>
@@ -5863,7 +5880,7 @@
         <v>1855020</v>
       </c>
       <c r="H140" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.4">
@@ -5871,10 +5888,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C141" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D141">
         <v>42200</v>
@@ -5889,7 +5906,7 @@
         <v>1869944</v>
       </c>
       <c r="H141" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.4">
@@ -5897,10 +5914,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C142" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D142">
         <v>299000</v>
@@ -5915,7 +5932,7 @@
         <v>1818710</v>
       </c>
       <c r="H142" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.4">
@@ -5923,10 +5940,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C143" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D143">
         <v>24250</v>
@@ -5941,7 +5958,7 @@
         <v>1804485</v>
       </c>
       <c r="H143" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.4">
@@ -5949,10 +5966,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C144" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D144">
         <v>38950</v>
@@ -5967,7 +5984,7 @@
         <v>1752750</v>
       </c>
       <c r="H144" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.4">
@@ -5975,10 +5992,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C145" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D145">
         <v>6010</v>
@@ -5993,7 +6010,7 @@
         <v>1726434</v>
       </c>
       <c r="H145" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.4">
@@ -6001,10 +6018,10 @@
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C146" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D146">
         <v>18050</v>
@@ -6019,7 +6036,7 @@
         <v>1671553</v>
       </c>
       <c r="H146" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.4">
@@ -6027,10 +6044,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C147" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D147">
         <v>34050</v>
@@ -6045,7 +6062,7 @@
         <v>1601311</v>
       </c>
       <c r="H147" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.4">
@@ -6053,10 +6070,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C148" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D148">
         <v>236500</v>
@@ -6071,7 +6088,7 @@
         <v>1537250</v>
       </c>
       <c r="H148" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.4">
@@ -6079,10 +6096,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C149" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D149">
         <v>72400</v>
@@ -6097,7 +6114,7 @@
         <v>1517206</v>
       </c>
       <c r="H149" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.4">
@@ -6105,10 +6122,10 @@
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C150" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D150">
         <v>16900</v>
@@ -6123,7 +6140,7 @@
         <v>1604406</v>
       </c>
       <c r="H150" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.4">
@@ -6131,10 +6148,10 @@
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C151" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D151">
         <v>132000</v>
@@ -6149,7 +6166,7 @@
         <v>1498135</v>
       </c>
       <c r="H151" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.4">
@@ -6157,10 +6174,10 @@
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C152" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D152">
         <v>131500</v>
@@ -6175,7 +6192,7 @@
         <v>1502532</v>
       </c>
       <c r="H152" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.4">
@@ -6183,10 +6200,10 @@
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C153" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D153">
         <v>39650</v>
@@ -6201,7 +6218,7 @@
         <v>1550885</v>
       </c>
       <c r="H153" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.4">
@@ -6209,10 +6226,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C154" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D154">
         <v>15200</v>
@@ -6227,7 +6244,7 @@
         <v>1520135</v>
       </c>
       <c r="H154" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.4">
@@ -6235,10 +6252,10 @@
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C155" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D155">
         <v>94800</v>
@@ -6253,7 +6270,7 @@
         <v>1566460</v>
       </c>
       <c r="H155" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.4">
@@ -6261,10 +6278,10 @@
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C156" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D156">
         <v>58900</v>
@@ -6279,7 +6296,7 @@
         <v>1508930</v>
       </c>
       <c r="H156" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.4">
@@ -6287,10 +6304,10 @@
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C157" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D157">
         <v>50600</v>
@@ -6305,7 +6322,7 @@
         <v>1563166</v>
       </c>
       <c r="H157" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.4">
@@ -6313,10 +6330,10 @@
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C158" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D158">
         <v>22500</v>
@@ -6331,7 +6348,7 @@
         <v>1598919</v>
       </c>
       <c r="H158" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.4">
@@ -6339,10 +6356,10 @@
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C159" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D159">
         <v>205000</v>
@@ -6357,7 +6374,7 @@
         <v>1463700</v>
       </c>
       <c r="H159" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.4">
@@ -6365,10 +6382,10 @@
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C160" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D160">
         <v>5590</v>
@@ -6383,7 +6400,7 @@
         <v>1387369</v>
       </c>
       <c r="H160" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.4">
@@ -6391,10 +6408,10 @@
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C161" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D161">
         <v>745000</v>
@@ -6409,7 +6426,7 @@
         <v>1372320</v>
       </c>
       <c r="H161" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.4">
@@ -6417,10 +6434,10 @@
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C162" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D162">
         <v>83700</v>
@@ -6435,7 +6452,7 @@
         <v>1322498</v>
       </c>
       <c r="H162" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.4">
@@ -6443,10 +6460,10 @@
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C163" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D163">
         <v>19500</v>
@@ -6461,7 +6478,7 @@
         <v>1350875</v>
       </c>
       <c r="H163" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.4">
@@ -6469,10 +6486,10 @@
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C164" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D164">
         <v>25300</v>
@@ -6487,7 +6504,7 @@
         <v>1321688</v>
       </c>
       <c r="H164" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.4">
@@ -6495,10 +6512,10 @@
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C165" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D165">
         <v>149000</v>
@@ -6513,7 +6530,7 @@
         <v>1382554</v>
       </c>
       <c r="H165" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.4">
@@ -6521,10 +6538,10 @@
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C166" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D166">
         <v>28550</v>
@@ -6539,7 +6556,7 @@
         <v>1167084</v>
       </c>
       <c r="H166" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.4">
@@ -6547,10 +6564,10 @@
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C167" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D167">
         <v>59400</v>
@@ -6565,7 +6582,7 @@
         <v>1091445</v>
       </c>
       <c r="H167" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.4">
@@ -6573,10 +6590,10 @@
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C168" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D168">
         <v>30900</v>
@@ -6591,7 +6608,7 @@
         <v>1145906</v>
       </c>
       <c r="H168" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.4">
@@ -6599,10 +6616,10 @@
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C169" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D169">
         <v>17000</v>
@@ -6617,7 +6634,7 @@
         <v>1167730</v>
       </c>
       <c r="H169" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.4">
@@ -6625,10 +6642,10 @@
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C170" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D170">
         <v>1100000</v>
@@ -6643,7 +6660,7 @@
         <v>1224740</v>
       </c>
       <c r="H170" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.4">
@@ -6651,10 +6668,10 @@
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C171" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D171">
         <v>28100</v>
@@ -6669,7 +6686,7 @@
         <v>1089156</v>
       </c>
       <c r="H171" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.4">
@@ -6677,10 +6694,10 @@
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C172" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D172">
         <v>85100</v>
@@ -6695,7 +6712,7 @@
         <v>1191400</v>
       </c>
       <c r="H172" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.4">
@@ -6703,10 +6720,10 @@
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C173" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D173">
         <v>51500</v>
@@ -6721,7 +6738,7 @@
         <v>1133000</v>
       </c>
       <c r="H173" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.4">
@@ -6729,10 +6746,10 @@
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C174" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D174">
         <v>47950</v>
@@ -6747,7 +6764,7 @@
         <v>1097153</v>
       </c>
       <c r="H174" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.4">
@@ -6755,10 +6772,10 @@
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C175" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D175">
         <v>58400</v>
@@ -6773,7 +6790,7 @@
         <v>1168000</v>
       </c>
       <c r="H175" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.4">
@@ -6781,10 +6798,10 @@
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C176" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D176">
         <v>75600</v>
@@ -6799,7 +6816,7 @@
         <v>907200</v>
       </c>
       <c r="H176" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.4">
@@ -6807,10 +6824,10 @@
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C177" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D177">
         <v>11850</v>
@@ -6825,7 +6842,7 @@
         <v>942335</v>
       </c>
       <c r="H177" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.4">
@@ -6833,10 +6850,10 @@
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C178" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D178">
         <v>40450</v>
@@ -6851,7 +6868,7 @@
         <v>907590</v>
       </c>
       <c r="H178" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.4">
@@ -6859,10 +6876,10 @@
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C179" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D179">
         <v>41150</v>
@@ -6877,7 +6894,7 @@
         <v>1013525</v>
       </c>
       <c r="H179" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.4">
@@ -6885,10 +6902,10 @@
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C180" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D180">
         <v>16100</v>
@@ -6903,7 +6920,7 @@
         <v>1008591</v>
       </c>
       <c r="H180" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.4">
@@ -6911,10 +6928,10 @@
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C181" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D181">
         <v>15750</v>
@@ -6929,7 +6946,7 @@
         <v>953990</v>
       </c>
       <c r="H181" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.4">
@@ -6937,10 +6954,10 @@
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C182" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D182">
         <v>47900</v>
@@ -6955,7 +6972,7 @@
         <v>911913</v>
       </c>
       <c r="H182" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.4">
@@ -6963,10 +6980,10 @@
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C183" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D183">
         <v>9840</v>
@@ -6981,7 +6998,7 @@
         <v>961412</v>
       </c>
       <c r="H183" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.4">
@@ -6989,10 +7006,10 @@
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C184" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D184">
         <v>245000</v>
@@ -7007,7 +7024,7 @@
         <v>901022</v>
       </c>
       <c r="H184" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.4">
@@ -7015,10 +7032,10 @@
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C185" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D185">
         <v>5610</v>
@@ -7033,7 +7050,7 @@
         <v>1026028</v>
       </c>
       <c r="H185" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.4">
@@ -7041,10 +7058,10 @@
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C186" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D186">
         <v>120500</v>
@@ -7059,7 +7076,7 @@
         <v>1031995</v>
       </c>
       <c r="H186" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.4">
@@ -7067,10 +7084,10 @@
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C187" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D187">
         <v>15800</v>
@@ -7085,7 +7102,7 @@
         <v>977320</v>
       </c>
       <c r="H187" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.4">
@@ -7093,10 +7110,10 @@
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C188" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D188">
         <v>21850</v>
@@ -7111,7 +7128,7 @@
         <v>874000</v>
       </c>
       <c r="H188" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.4">
@@ -7119,10 +7136,10 @@
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C189" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D189">
         <v>35650</v>
@@ -7137,7 +7154,7 @@
         <v>999066</v>
       </c>
       <c r="H189" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.4">
@@ -7145,10 +7162,10 @@
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C190" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D190">
         <v>88600</v>
@@ -7163,7 +7180,7 @@
         <v>794536</v>
       </c>
       <c r="H190" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.4">
@@ -7171,10 +7188,10 @@
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C191" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D191">
         <v>8210</v>
@@ -7189,7 +7206,7 @@
         <v>801853</v>
       </c>
       <c r="H191" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.4">
@@ -7197,10 +7214,10 @@
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C192" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D192">
         <v>31650</v>
@@ -7215,7 +7232,7 @@
         <v>747184</v>
       </c>
       <c r="H192" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.4">
@@ -7223,10 +7240,10 @@
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C193" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D193">
         <v>206500</v>
@@ -7241,7 +7258,7 @@
         <v>796909</v>
       </c>
       <c r="H193" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.4">
@@ -7249,10 +7266,10 @@
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C194" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D194">
         <v>9970</v>
@@ -7267,7 +7284,7 @@
         <v>760518</v>
       </c>
       <c r="H194" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.4">
@@ -7275,10 +7292,10 @@
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C195" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D195">
         <v>56200</v>
@@ -7293,7 +7310,7 @@
         <v>821820</v>
       </c>
       <c r="H195" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.4">
@@ -7301,10 +7318,10 @@
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C196" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D196">
         <v>35750</v>
@@ -7319,7 +7336,7 @@
         <v>682312</v>
       </c>
       <c r="H196" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.4">
@@ -7327,10 +7344,10 @@
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C197" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D197">
         <v>24150</v>
@@ -7345,7 +7362,7 @@
         <v>858827</v>
       </c>
       <c r="H197" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.4">
@@ -7353,10 +7370,10 @@
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C198" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D198">
         <v>25150</v>
@@ -7371,7 +7388,7 @@
         <v>871398</v>
       </c>
       <c r="H198" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.4">
@@ -7379,10 +7396,10 @@
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C199" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D199">
         <v>27500</v>
@@ -7397,7 +7414,7 @@
         <v>592348</v>
       </c>
       <c r="H199" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.4">
@@ -7405,10 +7422,10 @@
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C200" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D200">
         <v>11700</v>
@@ -7423,7 +7440,7 @@
         <v>620189</v>
       </c>
       <c r="H200" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.4">
@@ -7431,10 +7448,10 @@
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C201" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D201">
         <v>83600</v>
@@ -7449,7 +7466,7 @@
         <v>629760</v>
       </c>
       <c r="H201" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
   </sheetData>
